--- a/transportschip itereren/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/transportschip itereren/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -999,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91%</t>
+          <t xml:space="preserve"> 62%</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="D12" s="22" t="n">
-        <v>470550.3126380809</v>
+        <v>301369.9088489864</v>
       </c>
     </row>
     <row r="13" ht="35.4" customHeight="1">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>3.100992589961451</v>
+        <v>4.021406327182131</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D22" s="7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>23.976</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>14.988</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>7.988</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D36" s="23" t="n">
-        <v>-240358422.507975</v>
+        <v>-93288919.22325</v>
       </c>
     </row>
     <row r="37">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>70.91120726548422</v>
+        <v>42.77972497203019</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>-0.0004327642678354389</v>
+        <v>0.0003557069312310269</v>
       </c>
     </row>
     <row r="39">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>7.104063194937617</v>
+        <v>7.186327933210776</v>
       </c>
     </row>
     <row r="41">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>240358422.507975</v>
+        <v>93288919.22325</v>
       </c>
     </row>
     <row r="44">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>70.8839</v>
+        <v>42.7923</v>
       </c>
     </row>
     <row r="45">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="D46" s="7" t="n">
-        <v>4.2096</v>
+        <v>3.3521</v>
       </c>
     </row>
     <row r="48" ht="39" customHeight="1">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D49" s="7" t="n">
-        <v>-2.980232238769531e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-6563531.254794854</v>
+        <v>1173110.768505013</v>
       </c>
     </row>
     <row r="51">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>104018.5367347449</v>
+        <v>-33183.51517476141</v>
       </c>
     </row>
     <row r="52" ht="40.8" customHeight="1">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>-2256300</v>
+        <v>-52929855</v>
       </c>
     </row>
     <row r="57" ht="14.4" customHeight="1">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" ht="14.4" customHeight="1">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="31.8" customHeight="1">
@@ -2567,9 +2567,9 @@
   </mergeCells>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="8"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/transportschip itereren/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/transportschip itereren/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Antwoordenblad" sheetId="1" state="visible" r:id="rId1"/>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -100,12 +100,6 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="14"/>
@@ -117,12 +111,6 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="16"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -233,17 +221,6 @@
       <right style="thin">
         <color rgb="FF7F7F7F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -339,9 +316,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -361,7 +338,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
@@ -371,7 +348,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -386,14 +363,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
@@ -403,66 +380,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Invoer" xfId="1" builtinId="20"/>
-    <cellStyle name="Notitie" xfId="2" builtinId="10"/>
-    <cellStyle name="Controlecel" xfId="3" builtinId="23"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -673,16 +627,7 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <scene3d>
-          <camera prst="orthographicFront"/>
-          <lightRig rig="twoPt" dir="t">
-            <rot lat="0" lon="0" rev="7200000"/>
-          </lightRig>
-        </scene3d>
-        <a:sp3d>
-          <bevelT w="25400" h="19050"/>
-          <contourClr rgb="00000000"/>
-        </a:sp3d>
+        <a:sp3d/>
       </spPr>
     </pic>
     <clientData/>
@@ -999,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1008,22 +953,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="5.5546875" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
-    <col width="9.77734375" customWidth="1" min="3" max="3"/>
-    <col width="46" customWidth="1" style="5" min="4" max="4"/>
-    <col width="19.21875" customWidth="1" min="5" max="5"/>
-    <col width="24.44140625" customWidth="1" min="6" max="6"/>
-    <col width="16.109375" customWidth="1" min="7" max="7"/>
-    <col width="27.5546875" customWidth="1" min="8" max="8"/>
+    <col width="5.5546875" customWidth="1" style="30" min="1" max="1"/>
+    <col width="48" customWidth="1" style="30" min="2" max="2"/>
+    <col width="9.77734375" customWidth="1" style="30" min="3" max="3"/>
+    <col width="46" customWidth="1" style="36" min="4" max="4"/>
+    <col width="19.21875" customWidth="1" style="30" min="5" max="5"/>
+    <col width="24.44140625" customWidth="1" style="30" min="6" max="6"/>
+    <col width="16.109375" customWidth="1" style="30" min="7" max="7"/>
+    <col width="27.5546875" customWidth="1" style="30" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" customHeight="1">
+    <row r="1" ht="25.8" customHeight="1" s="30">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Antwoordblad MT1463 &amp; MT1466</t>
@@ -1060,7 +1005,9 @@
           <t>PG</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n"/>
+      <c r="D5" s="4" t="n">
+        <v>22</v>
+      </c>
       <c r="E5" s="8" t="n"/>
     </row>
     <row r="6">
@@ -1074,7 +1021,11 @@
           <t>[.3dm]</t>
         </is>
       </c>
-      <c r="D6" s="10" t="n"/>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>Transport_schip_pg22.3dm</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -1087,7 +1038,11 @@
           <t>[.gh]</t>
         </is>
       </c>
-      <c r="D7" s="10" t="n"/>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>Transport_schip_pg22.gh</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
@@ -1099,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="28.8" customHeight="1">
+    <row r="9" ht="28.8" customHeight="1" s="30">
       <c r="A9" s="25" t="inlineStr">
         <is>
           <t>Scheepsweerstand</t>
@@ -1135,7 +1090,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62%</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1150,11 +1105,13 @@
           <t>[kN]</t>
         </is>
       </c>
-      <c r="D12" s="22" t="n">
-        <v>301369.9088489864</v>
-      </c>
-    </row>
-    <row r="13" ht="35.4" customHeight="1">
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>295161.8660305524</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="35.4" customHeight="1" s="30">
       <c r="A13" s="25" t="inlineStr">
         <is>
           <t>Stabiliteit</t>
@@ -1164,14 +1121,14 @@
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="25" t="n"/>
     </row>
-    <row r="14" ht="42.6" customHeight="1">
-      <c r="B14" s="27" t="inlineStr">
+    <row r="14" ht="42.6" customHeight="1" s="30">
+      <c r="B14" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">Geef hieronder de gevonden GM waarde voor de aanvangsstabiliteit, gecorrigeerd voor eventuele vrije vloeistof oppervlakken. Te grote afwijkingen worden niet goegekeurd en zullen leiden tot een onvoldoende. </t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15.6" customHeight="1">
+    <row r="15" ht="15.6" customHeight="1" s="30">
       <c r="B15" s="2" t="inlineStr">
         <is>
           <t>beschrijving</t>
@@ -1200,10 +1157,10 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>4.021406327182131</v>
-      </c>
-    </row>
-    <row r="17" ht="35.4" customHeight="1">
+        <v>3.152080827983174</v>
+      </c>
+    </row>
+    <row r="17" ht="35.4" customHeight="1" s="30">
       <c r="A17" s="25" t="inlineStr">
         <is>
           <t>Huiddikte</t>
@@ -1213,9 +1170,9 @@
       <c r="C17" s="25" t="n"/>
       <c r="D17" s="25" t="n"/>
     </row>
-    <row r="18" ht="35.4" customHeight="1">
+    <row r="18" ht="35.4" customHeight="1" s="30">
       <c r="A18" s="13" t="n"/>
-      <c r="B18" s="27" t="inlineStr">
+      <c r="B18" s="35" t="inlineStr">
         <is>
           <t>Voor de eerste deelopdrachten is de huiddikte opgegeven, voor deelopdracht 8-10 vul je hier de berekende huiddikte in.</t>
         </is>
@@ -1236,7 +1193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="45" customHeight="1">
+    <row r="20" ht="45" customHeight="1" s="30">
       <c r="A20" s="25" t="inlineStr">
         <is>
           <t>Controle</t>
@@ -1247,14 +1204,14 @@
       <c r="D20" s="25" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="27" t="inlineStr">
+      <c r="B21" s="35" t="inlineStr">
         <is>
           <t>De volgende waarden worden gevraagd ter controle.</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="28" t="inlineStr">
+      <c r="B22" s="37" t="inlineStr">
         <is>
           <t>Lengte</t>
         </is>
@@ -1271,7 +1228,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="28" t="inlineStr">
+      <c r="B23" s="37" t="inlineStr">
         <is>
           <t>Breedte</t>
         </is>
@@ -1283,7 +1240,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23.96</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1256,7 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>9</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1272,7 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5.98</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1385,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="33" ht="39.6" customHeight="1">
+    <row r="33" ht="39.6" customHeight="1" s="30">
       <c r="A33" s="25" t="inlineStr">
         <is>
           <t>Deplacement en opdrijvend vermogen</t>
@@ -1438,8 +1395,8 @@
       <c r="C33" s="25" t="n"/>
       <c r="D33" s="25" t="n"/>
     </row>
-    <row r="34" ht="36" customHeight="1">
-      <c r="B34" s="27" t="inlineStr">
+    <row r="34" ht="36" customHeight="1" s="30">
+      <c r="B34" s="35" t="inlineStr">
         <is>
           <t>Geef hieronder de som van alle neerwaarste krachten samen met het berekende zwaartepunt daarvan.</t>
         </is>
@@ -1474,7 +1431,7 @@
         </is>
       </c>
       <c r="D36" s="23" t="n">
-        <v>-93288919.22325</v>
+        <v>-91455090.99345</v>
       </c>
     </row>
     <row r="37">
@@ -1489,10 +1446,10 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>42.77972497203019</v>
-      </c>
-    </row>
-    <row r="38" ht="18" customHeight="1">
+        <v>41.6641995037856</v>
+      </c>
+    </row>
+    <row r="38" ht="18" customHeight="1" s="30">
       <c r="B38" t="inlineStr">
         <is>
           <t>TCG (y)</t>
@@ -1504,7 +1461,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>0.0003557069312310269</v>
+        <v>6.069359465311126e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1519,11 +1476,11 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>7.186327933210776</v>
+        <v>7.227271215631358</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="26" t="inlineStr">
+      <c r="B41" s="40" t="inlineStr">
         <is>
           <t>Geef hieronder de som van alle opwaarste krachten samen met het berekende zwaartepunt daarvan.</t>
         </is>
@@ -1558,7 +1515,7 @@
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>93288919.22325</v>
+        <v>91455090.99345</v>
       </c>
     </row>
     <row r="44">
@@ -1573,7 +1530,7 @@
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>42.7923</v>
+        <v>41.6642</v>
       </c>
     </row>
     <row r="45">
@@ -1603,11 +1560,11 @@
         </is>
       </c>
       <c r="D46" s="7" t="n">
-        <v>3.3521</v>
-      </c>
-    </row>
-    <row r="48" ht="39" customHeight="1">
-      <c r="B48" s="27" t="inlineStr">
+        <v>3.3136</v>
+      </c>
+    </row>
+    <row r="48" ht="39" customHeight="1" s="30">
+      <c r="B48" s="35" t="inlineStr">
         <is>
           <t>Geef hieronder de afwijking in evenwicht die jullie ontwerp volgens jullie heeft. Te grote afwijkingen worden niet goegekeurd en zullen leiden tot een onvoldoende.</t>
         </is>
@@ -1640,7 +1597,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>1173110.768505013</v>
+        <v>45.3813335320117</v>
       </c>
     </row>
     <row r="51">
@@ -1655,10 +1612,10 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>-33183.51517476141</v>
-      </c>
-    </row>
-    <row r="52" ht="40.8" customHeight="1">
+        <v>-5550.738221719861</v>
+      </c>
+    </row>
+    <row r="52" ht="40.8" customHeight="1" s="30">
       <c r="A52" s="25" t="inlineStr">
         <is>
           <t>Deklading</t>
@@ -1668,14 +1625,14 @@
       <c r="C52" s="25" t="n"/>
       <c r="D52" s="25" t="n"/>
     </row>
-    <row r="53" ht="19.2" customHeight="1">
-      <c r="B53" s="28" t="inlineStr">
+    <row r="53" ht="19.2" customHeight="1" s="30">
+      <c r="B53" s="37" t="inlineStr">
         <is>
           <t xml:space="preserve">Vul hieronder de gegevens van de deklading in. </t>
         </is>
       </c>
     </row>
-    <row r="54" ht="14.4" customHeight="1">
+    <row r="54" ht="14.4" customHeight="1" s="30">
       <c r="B54" s="2" t="inlineStr">
         <is>
           <t>beschrijving</t>
@@ -1692,7 +1649,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="14.4" customHeight="1">
+    <row r="55" ht="14.4" customHeight="1" s="30">
       <c r="B55" t="inlineStr">
         <is>
           <t>Aantal transition pieces</t>
@@ -1704,10 +1661,10 @@
         </is>
       </c>
       <c r="D55" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" ht="14.4" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="14.4" customHeight="1" s="30">
       <c r="B56" t="inlineStr">
         <is>
           <t>Gewicht per transition piece</t>
@@ -1722,7 +1679,7 @@
         <v>-52929855</v>
       </c>
     </row>
-    <row r="57" ht="14.4" customHeight="1">
+    <row r="57" ht="14.4" customHeight="1" s="30">
       <c r="B57" t="inlineStr">
         <is>
           <t>lcg van de trancition pieces</t>
@@ -1734,10 +1691,10 @@
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" ht="14.4" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" ht="14.4" customHeight="1" s="30">
       <c r="B58" t="inlineStr">
         <is>
           <t>tcg van de trancition pieces</t>
@@ -1752,7 +1709,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="59" ht="14.4" customHeight="1">
+    <row r="59" ht="14.4" customHeight="1" s="30">
       <c r="B59" t="inlineStr">
         <is>
           <t>vcg van de trancition pieces</t>
@@ -1764,25 +1721,25 @@
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" ht="31.8" customHeight="1">
-      <c r="B60" s="30" t="inlineStr">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="60" ht="31.8" customHeight="1" s="30">
+      <c r="B60" s="38" t="inlineStr">
         <is>
           <t>Geef bij deelopsdracht 8, 9 en 10 de individuele loctaties van alle transition pieces op via de tabel vanaf rij 105.</t>
         </is>
       </c>
-      <c r="D60" s="40" t="n"/>
-    </row>
-    <row r="61" ht="30" customHeight="1">
-      <c r="B61" s="26" t="inlineStr">
+      <c r="D60" s="39" t="n"/>
+    </row>
+    <row r="61" ht="30" customHeight="1" s="30">
+      <c r="B61" s="40" t="inlineStr">
         <is>
           <t>Teken ter controlle in het Rhino bestand ook de transition pieces in (als bijvoorbeeld dichte cilinders)</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="39.6" customHeight="1">
+    <row r="62" ht="39.6" customHeight="1" s="30">
       <c r="A62" s="25" t="inlineStr">
         <is>
           <t>Kraangegevens</t>
@@ -1792,8 +1749,8 @@
       <c r="C62" s="25" t="n"/>
       <c r="D62" s="25" t="n"/>
     </row>
-    <row r="63" ht="73.2" customHeight="1">
-      <c r="B63" s="27" t="inlineStr">
+    <row r="63" ht="73.2" customHeight="1" s="30">
+      <c r="B63" s="35" t="inlineStr">
         <is>
           <t>Vul hieronder de gegevens van beladingsconditie in. Teken ter controlle in het Rhino bestand ook de kraan met een transition pieces als kraanlast. De kraan kan je tekenen met twee lijnen, de transition piece als een cilinder.</t>
         </is>
@@ -1827,9 +1784,7 @@
           <t>[N]</t>
         </is>
       </c>
-      <c r="D65" s="7" t="n">
-        <v>2400319.14893617</v>
-      </c>
+      <c r="D65" s="7" t="n"/>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
@@ -1842,9 +1797,7 @@
           <t>[-]</t>
         </is>
       </c>
-      <c r="D66" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="D66" s="12" t="n"/>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
@@ -1857,16 +1810,14 @@
           <t>[N]</t>
         </is>
       </c>
-      <c r="D67" s="7" t="n">
-        <v>-2256300</v>
-      </c>
-    </row>
-    <row r="68" ht="14.4" customHeight="1">
+      <c r="D67" s="7" t="n"/>
+    </row>
+    <row r="68" ht="14.4" customHeight="1" s="30">
       <c r="B68" s="24" t="n"/>
       <c r="C68" s="24" t="n"/>
       <c r="D68" s="24" t="n"/>
     </row>
-    <row r="69" ht="14.4" customHeight="1">
+    <row r="69" ht="14.4" customHeight="1" s="30">
       <c r="B69" s="20" t="inlineStr">
         <is>
           <t>Lengte kraanfundatie</t>
@@ -1877,9 +1828,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D69" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="D69" s="7" t="n"/>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
@@ -1892,9 +1841,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D70" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="D70" s="7" t="n"/>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
@@ -1907,9 +1854,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D71" s="7" t="n">
-        <v>32.5</v>
-      </c>
+      <c r="D71" s="7" t="n"/>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
@@ -1922,9 +1867,7 @@
           <t>[graden]</t>
         </is>
       </c>
-      <c r="D72" s="7" t="n">
-        <v>90</v>
-      </c>
+      <c r="D72" s="7" t="n"/>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
@@ -1937,9 +1880,7 @@
           <t>[graden]</t>
         </is>
       </c>
-      <c r="D73" s="7" t="n">
-        <v>60</v>
-      </c>
+      <c r="D73" s="7" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="24" t="n"/>
@@ -1957,9 +1898,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D75" s="7" t="n">
-        <v>10</v>
-      </c>
+      <c r="D75" s="7" t="n"/>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
@@ -1972,9 +1911,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D76" s="7" t="n">
-        <v>24.25</v>
-      </c>
+      <c r="D76" s="7" t="n"/>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
@@ -1987,9 +1924,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D77" s="7" t="n">
-        <v>44.146</v>
-      </c>
+      <c r="D77" s="7" t="n"/>
     </row>
     <row r="78">
       <c r="B78" s="24" t="n"/>
@@ -2007,9 +1942,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D79" s="23" t="n">
-        <v>10</v>
-      </c>
+      <c r="D79" s="23" t="n"/>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
@@ -2022,9 +1955,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D80" s="23" t="n">
-        <v>8</v>
-      </c>
+      <c r="D80" s="23" t="n"/>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
@@ -2037,9 +1968,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D81" s="23" t="n">
-        <v>16</v>
-      </c>
+      <c r="D81" s="23" t="n"/>
     </row>
     <row r="82">
       <c r="B82" s="24" t="n"/>
@@ -2057,9 +1986,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D83" s="7" t="n">
-        <v>10</v>
-      </c>
+      <c r="D83" s="7" t="n"/>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
@@ -2072,11 +1999,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D84" s="7" t="n">
-        <v>16.13</v>
-      </c>
-    </row>
-    <row r="85" ht="14.4" customHeight="1">
+      <c r="D84" s="7" t="n"/>
+    </row>
+    <row r="85" ht="14.4" customHeight="1" s="30">
       <c r="B85" t="inlineStr">
         <is>
           <t>vcg kraanboom</t>
@@ -2087,11 +2012,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D85" s="7" t="n">
-        <v>30.073</v>
-      </c>
-    </row>
-    <row r="86" ht="14.4" customHeight="1">
+      <c r="D85" s="7" t="n"/>
+    </row>
+    <row r="86" ht="14.4" customHeight="1" s="30">
       <c r="B86" s="24" t="n"/>
       <c r="C86" s="24" t="n"/>
       <c r="D86" s="24" t="n"/>
@@ -2107,9 +2030,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D87" s="7" t="n">
-        <v>10</v>
-      </c>
+      <c r="D87" s="7" t="n"/>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
@@ -2122,9 +2043,7 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D88" s="7" t="n">
-        <v>24.25</v>
-      </c>
+      <c r="D88" s="7" t="n"/>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
@@ -2137,11 +2056,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D89" s="7" t="n">
-        <v>44.146</v>
-      </c>
-    </row>
-    <row r="90" ht="36.6" customHeight="1">
+      <c r="D89" s="7" t="n"/>
+    </row>
+    <row r="90" ht="36.6" customHeight="1" s="30">
       <c r="A90" s="25" t="inlineStr">
         <is>
           <t>Globale sterkte gegevens</t>
@@ -2151,15 +2068,15 @@
       <c r="C90" s="25" t="n"/>
       <c r="D90" s="25" t="n"/>
     </row>
-    <row r="91" ht="36.6" customHeight="1">
+    <row r="91" ht="36.6" customHeight="1" s="30">
       <c r="A91" s="13" t="n"/>
-      <c r="B91" s="27" t="inlineStr">
+      <c r="B91" s="35" t="inlineStr">
         <is>
           <t>De onderstaande gegevens zijn alleen vanaf deelopdracht 8.</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="14.4" customHeight="1">
+    <row r="92" ht="14.4" customHeight="1" s="30">
       <c r="B92" s="15" t="inlineStr">
         <is>
           <t>Maximaal moment</t>
@@ -2172,7 +2089,7 @@
       </c>
       <c r="D92" s="7" t="n"/>
     </row>
-    <row r="93" ht="31.8" customHeight="1">
+    <row r="93" ht="31.8" customHeight="1" s="30">
       <c r="B93" s="16">
         <f>"Locatie "&amp;B92&amp;" in lengte vanaf de achterloodlijn"</f>
         <v/>
@@ -2184,7 +2101,7 @@
       </c>
       <c r="D93" s="7" t="n"/>
     </row>
-    <row r="94" ht="14.4" customHeight="1">
+    <row r="94" ht="14.4" customHeight="1" s="30">
       <c r="B94" s="15" t="inlineStr">
         <is>
           <t>Maximale afschuiving</t>
@@ -2197,7 +2114,7 @@
       </c>
       <c r="D94" s="7" t="n"/>
     </row>
-    <row r="95" ht="36" customHeight="1">
+    <row r="95" ht="36" customHeight="1" s="30">
       <c r="B95" s="16">
         <f>"Locatie "&amp;B94&amp;" in lengte vanaf de achterloodlijn"</f>
         <v/>
@@ -2209,7 +2126,7 @@
       </c>
       <c r="D95" s="7" t="n"/>
     </row>
-    <row r="96" ht="14.4" customHeight="1">
+    <row r="96" ht="14.4" customHeight="1" s="30">
       <c r="B96" s="15" t="inlineStr">
         <is>
           <t>Maximale doorbuiging</t>
@@ -2222,7 +2139,7 @@
       </c>
       <c r="D96" s="7" t="n"/>
     </row>
-    <row r="97" ht="39.6" customHeight="1">
+    <row r="97" ht="39.6" customHeight="1" s="30">
       <c r="B97" s="16">
         <f>"Locatie "&amp;B96&amp;" in lengte vanaf de achterloodlijn"</f>
         <v/>
@@ -2234,7 +2151,7 @@
       </c>
       <c r="D97" s="7" t="n"/>
     </row>
-    <row r="98" ht="18" customHeight="1">
+    <row r="98" ht="18" customHeight="1" s="30">
       <c r="B98" s="9" t="inlineStr">
         <is>
           <t>Opmerkingen</t>
@@ -2249,44 +2166,44 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" s="41" t="n"/>
-      <c r="C100" s="42" t="n"/>
-      <c r="D100" s="43" t="n"/>
+      <c r="B100" s="26" t="n"/>
+      <c r="C100" s="27" t="n"/>
+      <c r="D100" s="28" t="n"/>
     </row>
     <row r="101">
-      <c r="B101" s="44" t="n"/>
-      <c r="D101" s="45" t="n"/>
+      <c r="B101" s="29" t="n"/>
+      <c r="D101" s="31" t="n"/>
     </row>
     <row r="102">
-      <c r="B102" s="44" t="n"/>
-      <c r="D102" s="45" t="n"/>
+      <c r="B102" s="29" t="n"/>
+      <c r="D102" s="31" t="n"/>
     </row>
     <row r="103">
-      <c r="B103" s="44" t="n"/>
-      <c r="D103" s="45" t="n"/>
+      <c r="B103" s="29" t="n"/>
+      <c r="D103" s="31" t="n"/>
     </row>
     <row r="104">
-      <c r="B104" s="44" t="n"/>
-      <c r="D104" s="45" t="n"/>
+      <c r="B104" s="29" t="n"/>
+      <c r="D104" s="31" t="n"/>
     </row>
     <row r="105">
-      <c r="B105" s="44" t="n"/>
-      <c r="D105" s="45" t="n"/>
+      <c r="B105" s="29" t="n"/>
+      <c r="D105" s="31" t="n"/>
     </row>
     <row r="106">
-      <c r="B106" s="44" t="n"/>
-      <c r="D106" s="45" t="n"/>
+      <c r="B106" s="29" t="n"/>
+      <c r="D106" s="31" t="n"/>
     </row>
     <row r="107">
-      <c r="B107" s="44" t="n"/>
-      <c r="D107" s="45" t="n"/>
+      <c r="B107" s="29" t="n"/>
+      <c r="D107" s="31" t="n"/>
     </row>
     <row r="108">
-      <c r="B108" s="46" t="n"/>
-      <c r="C108" s="47" t="n"/>
-      <c r="D108" s="48" t="n"/>
-    </row>
-    <row r="109" ht="45" customHeight="1" thickBot="1">
+      <c r="B108" s="32" t="n"/>
+      <c r="C108" s="33" t="n"/>
+      <c r="D108" s="34" t="n"/>
+    </row>
+    <row r="109" ht="45" customHeight="1" s="30" thickBot="1">
       <c r="A109" s="25" t="inlineStr">
         <is>
           <t>Deklading vervolg (alleen noodzakelijk voor deelopdracht 8 tot 10)</t>
@@ -2296,7 +2213,7 @@
       <c r="C109" s="25" t="n"/>
       <c r="D109" s="25" t="n"/>
     </row>
-    <row r="110" ht="22.2" customHeight="1" thickBot="1" thickTop="1">
+    <row r="110" ht="22.2" customHeight="1" s="30" thickBot="1" thickTop="1">
       <c r="A110" s="13" t="n"/>
       <c r="B110" s="8" t="inlineStr">
         <is>
@@ -2319,13 +2236,13 @@
         <v/>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1" thickTop="1">
+    <row r="111" ht="15" customHeight="1" s="30" thickTop="1">
       <c r="B111" s="8" t="inlineStr">
         <is>
           <t>Beschrijving</t>
         </is>
       </c>
-      <c r="C111" s="5" t="inlineStr">
+      <c r="C111" s="36" t="inlineStr">
         <is>
           <t>lcg [m]</t>
         </is>
@@ -2347,7 +2264,15 @@
           <t>transition piece 1</t>
         </is>
       </c>
-      <c r="C112" s="5" t="n"/>
+      <c r="C112" s="36" t="n">
+        <v>3.258</v>
+      </c>
+      <c r="D112" s="36" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="113">
       <c r="B113" s="8" t="inlineStr">
@@ -2355,7 +2280,15 @@
           <t>transition piece 2</t>
         </is>
       </c>
-      <c r="C113" s="5" t="n"/>
+      <c r="C113" s="36" t="n">
+        <v>7.258</v>
+      </c>
+      <c r="D113" s="36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="114">
       <c r="B114" s="8" t="inlineStr">
@@ -2363,7 +2296,15 @@
           <t>transition piece 3</t>
         </is>
       </c>
-      <c r="C114" s="5" t="n"/>
+      <c r="C114" s="36" t="n">
+        <v>13.106</v>
+      </c>
+      <c r="D114" s="36" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="115">
       <c r="B115" s="8" t="inlineStr">
@@ -2371,7 +2312,15 @@
           <t>transition piece 4</t>
         </is>
       </c>
-      <c r="C115" s="5" t="n"/>
+      <c r="C115" s="36" t="n">
+        <v>17.106</v>
+      </c>
+      <c r="D115" s="36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="116">
       <c r="B116" s="8" t="inlineStr">
@@ -2379,7 +2328,15 @@
           <t>transition piece 5</t>
         </is>
       </c>
-      <c r="C116" s="5" t="n"/>
+      <c r="C116" s="36" t="n">
+        <v>21.106</v>
+      </c>
+      <c r="D116" s="36" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="117">
       <c r="B117" s="8" t="inlineStr">
@@ -2387,7 +2344,15 @@
           <t>transition piece 6</t>
         </is>
       </c>
-      <c r="C117" s="5" t="n"/>
+      <c r="C117" s="36" t="n">
+        <v>25.106</v>
+      </c>
+      <c r="D117" s="36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="118">
       <c r="B118" s="8" t="inlineStr">
@@ -2395,7 +2360,15 @@
           <t>transition piece 7</t>
         </is>
       </c>
-      <c r="C118" s="5" t="n"/>
+      <c r="C118" s="36" t="n">
+        <v>30.954</v>
+      </c>
+      <c r="D118" s="36" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="119">
       <c r="B119" s="8" t="inlineStr">
@@ -2403,7 +2376,15 @@
           <t>transition piece 8</t>
         </is>
       </c>
-      <c r="C119" s="5" t="n"/>
+      <c r="C119" s="36" t="n">
+        <v>49.045</v>
+      </c>
+      <c r="D119" s="36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="120">
       <c r="B120" s="8" t="inlineStr">
@@ -2411,7 +2392,15 @@
           <t>transition piece 9</t>
         </is>
       </c>
-      <c r="C120" s="5" t="n"/>
+      <c r="C120" s="36" t="n">
+        <v>54.893</v>
+      </c>
+      <c r="D120" s="36" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="121">
       <c r="B121" s="8" t="inlineStr">
@@ -2419,7 +2408,15 @@
           <t>transition piece 10</t>
         </is>
       </c>
-      <c r="C121" s="5" t="n"/>
+      <c r="C121" s="36" t="n">
+        <v>58.893</v>
+      </c>
+      <c r="D121" s="36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="122">
       <c r="B122" s="8" t="inlineStr">
@@ -2427,7 +2424,15 @@
           <t>transition piece 11</t>
         </is>
       </c>
-      <c r="C122" s="5" t="n"/>
+      <c r="C122" s="36" t="n">
+        <v>62.893</v>
+      </c>
+      <c r="D122" s="36" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="123">
       <c r="B123" s="8" t="inlineStr">
@@ -2435,7 +2440,15 @@
           <t>transition piece 12</t>
         </is>
       </c>
-      <c r="C123" s="5" t="n"/>
+      <c r="C123" s="36" t="n">
+        <v>62.893</v>
+      </c>
+      <c r="D123" s="36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="124">
       <c r="B124" s="8" t="inlineStr">
@@ -2443,7 +2456,15 @@
           <t>transition piece 13</t>
         </is>
       </c>
-      <c r="C124" s="5" t="n"/>
+      <c r="C124" s="36" t="n">
+        <v>66.893</v>
+      </c>
+      <c r="D124" s="36" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="125">
       <c r="B125" s="8" t="inlineStr">
@@ -2451,7 +2472,15 @@
           <t>transition piece 14</t>
         </is>
       </c>
-      <c r="C125" s="5" t="n"/>
+      <c r="C125" s="36" t="n">
+        <v>72.741</v>
+      </c>
+      <c r="D125" s="36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="126">
       <c r="B126" s="8" t="inlineStr">
@@ -2459,7 +2488,15 @@
           <t>transition piece 15</t>
         </is>
       </c>
-      <c r="C126" s="5" t="n"/>
+      <c r="C126" s="36" t="n">
+        <v>76.741</v>
+      </c>
+      <c r="D126" s="36" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="127">
       <c r="B127" s="8" t="inlineStr">
@@ -2467,7 +2504,15 @@
           <t>transition piece 16</t>
         </is>
       </c>
-      <c r="C127" s="5" t="n"/>
+      <c r="C127" s="41" t="n">
+        <v>80.741</v>
+      </c>
+      <c r="D127" s="36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="128">
       <c r="B128" s="8" t="inlineStr">
@@ -2475,7 +2520,7 @@
           <t>transition piece 17</t>
         </is>
       </c>
-      <c r="C128" s="5" t="n"/>
+      <c r="C128" s="36" t="n"/>
     </row>
     <row r="129">
       <c r="B129" s="8" t="inlineStr">
@@ -2483,7 +2528,7 @@
           <t>transition piece 18</t>
         </is>
       </c>
-      <c r="C129" s="5" t="n"/>
+      <c r="C129" s="36" t="n"/>
     </row>
     <row r="130">
       <c r="B130" s="8" t="inlineStr">
@@ -2491,7 +2536,7 @@
           <t>transition piece 19</t>
         </is>
       </c>
-      <c r="C130" s="5" t="n"/>
+      <c r="C130" s="36" t="n"/>
     </row>
     <row r="131">
       <c r="B131" s="8" t="inlineStr">
@@ -2499,43 +2544,43 @@
           <t>transition piece 20</t>
         </is>
       </c>
-      <c r="C131" s="5" t="n"/>
+      <c r="C131" s="36" t="n"/>
     </row>
     <row r="132">
       <c r="B132" s="8" t="n"/>
-      <c r="C132" s="5" t="n"/>
+      <c r="C132" s="36" t="n"/>
     </row>
     <row r="133">
       <c r="B133" s="8" t="n"/>
-      <c r="C133" s="5" t="n"/>
+      <c r="C133" s="36" t="n"/>
     </row>
     <row r="134">
       <c r="B134" s="8" t="n"/>
-      <c r="C134" s="5" t="n"/>
+      <c r="C134" s="36" t="n"/>
     </row>
     <row r="135">
       <c r="B135" s="8" t="n"/>
-      <c r="C135" s="5" t="n"/>
+      <c r="C135" s="36" t="n"/>
     </row>
     <row r="136">
       <c r="B136" s="8" t="n"/>
-      <c r="C136" s="5" t="n"/>
+      <c r="C136" s="36" t="n"/>
     </row>
     <row r="137">
       <c r="B137" s="8" t="n"/>
-      <c r="C137" s="5" t="n"/>
+      <c r="C137" s="36" t="n"/>
     </row>
     <row r="138">
       <c r="B138" s="8" t="n"/>
-      <c r="C138" s="5" t="n"/>
+      <c r="C138" s="36" t="n"/>
     </row>
     <row r="139">
       <c r="B139" s="8" t="n"/>
-      <c r="C139" s="5" t="n"/>
+      <c r="C139" s="36" t="n"/>
     </row>
     <row r="140">
       <c r="B140" s="8" t="n"/>
-      <c r="C140" s="5" t="n"/>
+      <c r="C140" s="36" t="n"/>
     </row>
     <row r="141">
       <c r="B141" s="8" t="n"/>
@@ -2567,9 +2612,9 @@
   </mergeCells>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="8"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>